--- a/src/test/resources/Run_Manager_Contract_Waiver.xlsx
+++ b/src/test/resources/Run_Manager_Contract_Waiver.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\EjarUAT\EJAR_UAT\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478681E9-DBEE-4E13-AB21-8D0F0D4AA346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D91C5A-354A-404C-9F05-C87C6D3A14F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="697" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2566" uniqueCount="886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2566" uniqueCount="887">
   <si>
     <t>P_Key</t>
   </si>
@@ -6330,6 +6330,9 @@
   </si>
   <si>
     <t>ContractWaiver_TC_124</t>
+  </si>
+  <si>
+    <t>Regression</t>
   </si>
 </sst>
 </file>
@@ -7371,10 +7374,10 @@
   <dimension ref="A1:M181"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B167" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B175" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G5" sqref="G5"/>
       <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
-      <selection pane="bottomRight" activeCell="D52" sqref="D52"/>
+      <selection pane="bottomRight" activeCell="D187" sqref="D187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9394,7 +9397,7 @@
         <v>20</v>
       </c>
       <c r="I52" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J52" s="47" t="s">
         <v>33</v>
@@ -9433,7 +9436,7 @@
         <v>20</v>
       </c>
       <c r="I53" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J53" s="47" t="s">
         <v>33</v>
@@ -9472,7 +9475,7 @@
         <v>20</v>
       </c>
       <c r="I54" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J54" s="47" t="s">
         <v>33</v>
@@ -9511,7 +9514,7 @@
         <v>20</v>
       </c>
       <c r="I55" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J55" s="47" t="s">
         <v>33</v>
@@ -9550,7 +9553,7 @@
         <v>20</v>
       </c>
       <c r="I56" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J56" s="47" t="s">
         <v>33</v>
@@ -9589,7 +9592,7 @@
         <v>20</v>
       </c>
       <c r="I57" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J57" s="47" t="s">
         <v>33</v>
@@ -9628,7 +9631,7 @@
         <v>20</v>
       </c>
       <c r="I58" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J58" s="47" t="s">
         <v>33</v>
@@ -9667,7 +9670,7 @@
         <v>20</v>
       </c>
       <c r="I59" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J59" s="47" t="s">
         <v>33</v>
@@ -9706,7 +9709,7 @@
         <v>20</v>
       </c>
       <c r="I60" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J60" s="47" t="s">
         <v>33</v>
@@ -9745,7 +9748,7 @@
         <v>20</v>
       </c>
       <c r="I61" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J61" s="47" t="s">
         <v>33</v>
@@ -9784,7 +9787,7 @@
         <v>20</v>
       </c>
       <c r="I62" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J62" s="47" t="s">
         <v>33</v>
@@ -9823,7 +9826,7 @@
         <v>20</v>
       </c>
       <c r="I63" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J63" s="47" t="s">
         <v>33</v>
@@ -9862,7 +9865,7 @@
         <v>20</v>
       </c>
       <c r="I64" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J64" s="47" t="s">
         <v>33</v>
@@ -9901,7 +9904,7 @@
         <v>20</v>
       </c>
       <c r="I65" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J65" s="47" t="s">
         <v>33</v>
@@ -9940,7 +9943,7 @@
         <v>20</v>
       </c>
       <c r="I66" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J66" s="47" t="s">
         <v>33</v>
@@ -9979,7 +9982,7 @@
         <v>20</v>
       </c>
       <c r="I67" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J67" s="47" t="s">
         <v>33</v>
@@ -10018,7 +10021,7 @@
         <v>20</v>
       </c>
       <c r="I68" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J68" s="47" t="s">
         <v>33</v>
@@ -10057,7 +10060,7 @@
         <v>20</v>
       </c>
       <c r="I69" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J69" s="47" t="s">
         <v>33</v>
@@ -10096,7 +10099,7 @@
         <v>20</v>
       </c>
       <c r="I70" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J70" s="47" t="s">
         <v>33</v>
@@ -10135,7 +10138,7 @@
         <v>20</v>
       </c>
       <c r="I71" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J71" s="47" t="s">
         <v>33</v>
@@ -10174,7 +10177,7 @@
         <v>20</v>
       </c>
       <c r="I72" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J72" s="47" t="s">
         <v>33</v>
@@ -10213,7 +10216,7 @@
         <v>20</v>
       </c>
       <c r="I73" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J73" s="47" t="s">
         <v>33</v>
@@ -10252,7 +10255,7 @@
         <v>20</v>
       </c>
       <c r="I74" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J74" s="47" t="s">
         <v>33</v>
@@ -10291,7 +10294,7 @@
         <v>20</v>
       </c>
       <c r="I75" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J75" s="47" t="s">
         <v>33</v>
@@ -10330,7 +10333,7 @@
         <v>20</v>
       </c>
       <c r="I76" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J76" s="47" t="s">
         <v>33</v>
@@ -10369,7 +10372,7 @@
         <v>20</v>
       </c>
       <c r="I77" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J77" s="47" t="s">
         <v>33</v>
@@ -10408,7 +10411,7 @@
         <v>20</v>
       </c>
       <c r="I78" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J78" s="47" t="s">
         <v>33</v>
@@ -10447,7 +10450,7 @@
         <v>20</v>
       </c>
       <c r="I79" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J79" s="47" t="s">
         <v>33</v>
@@ -10486,7 +10489,7 @@
         <v>20</v>
       </c>
       <c r="I80" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J80" s="47" t="s">
         <v>33</v>
@@ -10525,7 +10528,7 @@
         <v>20</v>
       </c>
       <c r="I81" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J81" s="47" t="s">
         <v>33</v>
@@ -10564,7 +10567,7 @@
         <v>20</v>
       </c>
       <c r="I82" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J82" s="47" t="s">
         <v>33</v>
@@ -10603,7 +10606,7 @@
         <v>20</v>
       </c>
       <c r="I83" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J83" s="47" t="s">
         <v>33</v>
@@ -10642,7 +10645,7 @@
         <v>20</v>
       </c>
       <c r="I84" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J84" s="47" t="s">
         <v>33</v>
@@ -10681,7 +10684,7 @@
         <v>20</v>
       </c>
       <c r="I85" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J85" s="47" t="s">
         <v>33</v>
@@ -10720,7 +10723,7 @@
         <v>20</v>
       </c>
       <c r="I86" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J86" s="47" t="s">
         <v>33</v>
@@ -10759,7 +10762,7 @@
         <v>20</v>
       </c>
       <c r="I87" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J87" s="47" t="s">
         <v>33</v>
@@ -10798,7 +10801,7 @@
         <v>20</v>
       </c>
       <c r="I88" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J88" s="47" t="s">
         <v>33</v>
@@ -10837,7 +10840,7 @@
         <v>20</v>
       </c>
       <c r="I89" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J89" s="47" t="s">
         <v>33</v>
@@ -10876,7 +10879,7 @@
         <v>20</v>
       </c>
       <c r="I90" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J90" s="47" t="s">
         <v>33</v>
@@ -10915,7 +10918,7 @@
         <v>20</v>
       </c>
       <c r="I91" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J91" s="47" t="s">
         <v>33</v>
@@ -10954,7 +10957,7 @@
         <v>20</v>
       </c>
       <c r="I92" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J92" s="47" t="s">
         <v>33</v>
@@ -10993,7 +10996,7 @@
         <v>20</v>
       </c>
       <c r="I93" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J93" s="47" t="s">
         <v>33</v>
@@ -11032,7 +11035,7 @@
         <v>20</v>
       </c>
       <c r="I94" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J94" s="47" t="s">
         <v>33</v>
@@ -11071,7 +11074,7 @@
         <v>20</v>
       </c>
       <c r="I95" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J95" s="47" t="s">
         <v>33</v>
@@ -11110,7 +11113,7 @@
         <v>20</v>
       </c>
       <c r="I96" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J96" s="47" t="s">
         <v>33</v>
@@ -11149,7 +11152,7 @@
         <v>20</v>
       </c>
       <c r="I97" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J97" s="47" t="s">
         <v>33</v>
@@ -11188,7 +11191,7 @@
         <v>20</v>
       </c>
       <c r="I98" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J98" s="47" t="s">
         <v>33</v>
@@ -11227,7 +11230,7 @@
         <v>20</v>
       </c>
       <c r="I99" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J99" s="47" t="s">
         <v>33</v>
@@ -11266,7 +11269,7 @@
         <v>20</v>
       </c>
       <c r="I100" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J100" s="47" t="s">
         <v>33</v>
@@ -11305,7 +11308,7 @@
         <v>20</v>
       </c>
       <c r="I101" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J101" s="47" t="s">
         <v>33</v>
@@ -11344,7 +11347,7 @@
         <v>20</v>
       </c>
       <c r="I102" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J102" s="47" t="s">
         <v>33</v>
@@ -11383,7 +11386,7 @@
         <v>20</v>
       </c>
       <c r="I103" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J103" s="47" t="s">
         <v>33</v>
@@ -11422,7 +11425,7 @@
         <v>20</v>
       </c>
       <c r="I104" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J104" s="47" t="s">
         <v>33</v>
@@ -11461,7 +11464,7 @@
         <v>20</v>
       </c>
       <c r="I105" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J105" s="47" t="s">
         <v>33</v>
@@ -11500,7 +11503,7 @@
         <v>20</v>
       </c>
       <c r="I106" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J106" s="47" t="s">
         <v>33</v>
@@ -11572,7 +11575,7 @@
         <v>20</v>
       </c>
       <c r="I108" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J108" s="47" t="s">
         <v>33</v>
@@ -11611,7 +11614,7 @@
         <v>20</v>
       </c>
       <c r="I109" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J109" s="47" t="s">
         <v>33</v>
@@ -11650,7 +11653,7 @@
         <v>20</v>
       </c>
       <c r="I110" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J110" s="47" t="s">
         <v>33</v>
@@ -11689,7 +11692,7 @@
         <v>20</v>
       </c>
       <c r="I111" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J111" s="47" t="s">
         <v>33</v>
@@ -11728,7 +11731,7 @@
         <v>20</v>
       </c>
       <c r="I112" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J112" s="47" t="s">
         <v>33</v>
@@ -11767,7 +11770,7 @@
         <v>20</v>
       </c>
       <c r="I113" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J113" s="47" t="s">
         <v>33</v>
@@ -11806,7 +11809,7 @@
         <v>20</v>
       </c>
       <c r="I114" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J114" s="47" t="s">
         <v>33</v>
@@ -11845,7 +11848,7 @@
         <v>20</v>
       </c>
       <c r="I115" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J115" s="47" t="s">
         <v>33</v>
@@ -11884,7 +11887,7 @@
         <v>20</v>
       </c>
       <c r="I116" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J116" s="47" t="s">
         <v>33</v>
@@ -11923,7 +11926,7 @@
         <v>20</v>
       </c>
       <c r="I117" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J117" s="47" t="s">
         <v>33</v>
@@ -11962,7 +11965,7 @@
         <v>20</v>
       </c>
       <c r="I118" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J118" s="47" t="s">
         <v>33</v>
@@ -12001,7 +12004,7 @@
         <v>20</v>
       </c>
       <c r="I119" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J119" s="47" t="s">
         <v>33</v>
@@ -12040,7 +12043,7 @@
         <v>20</v>
       </c>
       <c r="I120" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J120" s="47" t="s">
         <v>33</v>
@@ -12079,7 +12082,7 @@
         <v>20</v>
       </c>
       <c r="I121" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J121" s="47" t="s">
         <v>33</v>
@@ -12118,7 +12121,7 @@
         <v>20</v>
       </c>
       <c r="I122" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J122" s="47" t="s">
         <v>33</v>
@@ -12157,7 +12160,7 @@
         <v>20</v>
       </c>
       <c r="I123" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J123" s="47" t="s">
         <v>33</v>
@@ -12196,7 +12199,7 @@
         <v>20</v>
       </c>
       <c r="I124" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J124" s="47" t="s">
         <v>33</v>
@@ -12235,7 +12238,7 @@
         <v>20</v>
       </c>
       <c r="I125" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J125" s="47" t="s">
         <v>33</v>
@@ -12274,7 +12277,7 @@
         <v>20</v>
       </c>
       <c r="I126" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J126" s="47" t="s">
         <v>33</v>
@@ -12313,7 +12316,7 @@
         <v>20</v>
       </c>
       <c r="I127" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J127" s="47" t="s">
         <v>33</v>
@@ -12383,7 +12386,7 @@
         <v>20</v>
       </c>
       <c r="I129" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J129" s="47" t="s">
         <v>33</v>
@@ -12422,7 +12425,7 @@
         <v>20</v>
       </c>
       <c r="I130" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J130" s="47" t="s">
         <v>33</v>
@@ -12461,7 +12464,7 @@
         <v>20</v>
       </c>
       <c r="I131" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J131" s="47" t="s">
         <v>33</v>
@@ -12500,7 +12503,7 @@
         <v>20</v>
       </c>
       <c r="I132" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J132" s="47" t="s">
         <v>33</v>
@@ -12539,7 +12542,7 @@
         <v>20</v>
       </c>
       <c r="I133" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J133" s="47" t="s">
         <v>33</v>
@@ -12578,7 +12581,7 @@
         <v>20</v>
       </c>
       <c r="I134" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J134" s="47" t="s">
         <v>33</v>
@@ -12617,7 +12620,7 @@
         <v>20</v>
       </c>
       <c r="I135" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J135" s="47" t="s">
         <v>33</v>
@@ -12656,7 +12659,7 @@
         <v>20</v>
       </c>
       <c r="I136" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J136" s="47" t="s">
         <v>33</v>
@@ -12695,7 +12698,7 @@
         <v>20</v>
       </c>
       <c r="I137" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J137" s="47" t="s">
         <v>33</v>
@@ -12734,7 +12737,7 @@
         <v>20</v>
       </c>
       <c r="I138" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J138" s="47" t="s">
         <v>33</v>
@@ -12773,7 +12776,7 @@
         <v>20</v>
       </c>
       <c r="I139" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J139" s="47" t="s">
         <v>33</v>
@@ -12812,7 +12815,7 @@
         <v>20</v>
       </c>
       <c r="I140" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J140" s="47" t="s">
         <v>33</v>
@@ -12851,7 +12854,7 @@
         <v>20</v>
       </c>
       <c r="I141" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J141" s="47" t="s">
         <v>33</v>
@@ -12890,7 +12893,7 @@
         <v>20</v>
       </c>
       <c r="I142" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J142" s="47" t="s">
         <v>33</v>
@@ -12929,7 +12932,7 @@
         <v>20</v>
       </c>
       <c r="I143" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J143" s="47" t="s">
         <v>33</v>
@@ -12968,7 +12971,7 @@
         <v>20</v>
       </c>
       <c r="I144" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J144" s="47" t="s">
         <v>33</v>
@@ -13007,7 +13010,7 @@
         <v>20</v>
       </c>
       <c r="I145" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J145" s="47" t="s">
         <v>33</v>
@@ -13046,7 +13049,7 @@
         <v>20</v>
       </c>
       <c r="I146" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J146" s="47" t="s">
         <v>33</v>
@@ -13116,7 +13119,7 @@
         <v>20</v>
       </c>
       <c r="I148" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J148" s="47" t="s">
         <v>33</v>
@@ -13155,7 +13158,7 @@
         <v>20</v>
       </c>
       <c r="I149" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J149" s="47" t="s">
         <v>33</v>
@@ -13194,7 +13197,7 @@
         <v>20</v>
       </c>
       <c r="I150" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J150" s="47" t="s">
         <v>33</v>
@@ -13233,7 +13236,7 @@
         <v>20</v>
       </c>
       <c r="I151" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J151" s="47" t="s">
         <v>33</v>
@@ -13272,7 +13275,7 @@
         <v>20</v>
       </c>
       <c r="I152" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J152" s="47" t="s">
         <v>33</v>
@@ -13342,7 +13345,7 @@
         <v>20</v>
       </c>
       <c r="I154" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J154" s="47" t="s">
         <v>33</v>
@@ -13381,7 +13384,7 @@
         <v>20</v>
       </c>
       <c r="I155" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J155" s="47" t="s">
         <v>33</v>
@@ -13420,7 +13423,7 @@
         <v>20</v>
       </c>
       <c r="I156" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J156" s="47" t="s">
         <v>33</v>
@@ -13459,7 +13462,7 @@
         <v>20</v>
       </c>
       <c r="I157" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J157" s="47" t="s">
         <v>33</v>
@@ -13498,7 +13501,7 @@
         <v>20</v>
       </c>
       <c r="I158" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J158" s="47" t="s">
         <v>33</v>
@@ -13537,7 +13540,7 @@
         <v>20</v>
       </c>
       <c r="I159" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J159" s="47" t="s">
         <v>33</v>
@@ -13576,7 +13579,7 @@
         <v>20</v>
       </c>
       <c r="I160" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J160" s="47" t="s">
         <v>33</v>
@@ -13615,7 +13618,7 @@
         <v>20</v>
       </c>
       <c r="I161" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J161" s="47" t="s">
         <v>33</v>
@@ -13654,7 +13657,7 @@
         <v>20</v>
       </c>
       <c r="I162" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J162" s="47" t="s">
         <v>33</v>
@@ -13693,7 +13696,7 @@
         <v>20</v>
       </c>
       <c r="I163" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J163" s="47" t="s">
         <v>33</v>
@@ -13763,7 +13766,7 @@
         <v>20</v>
       </c>
       <c r="I165" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J165" s="47" t="s">
         <v>33</v>
@@ -13802,7 +13805,7 @@
         <v>20</v>
       </c>
       <c r="I166" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J166" s="47" t="s">
         <v>33</v>
@@ -13841,7 +13844,7 @@
         <v>20</v>
       </c>
       <c r="I167" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J167" s="47" t="s">
         <v>33</v>
@@ -13880,7 +13883,7 @@
         <v>20</v>
       </c>
       <c r="I168" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J168" s="47" t="s">
         <v>33</v>
@@ -13919,7 +13922,7 @@
         <v>20</v>
       </c>
       <c r="I169" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J169" s="47" t="s">
         <v>33</v>
@@ -13958,7 +13961,7 @@
         <v>20</v>
       </c>
       <c r="I170" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J170" s="47" t="s">
         <v>33</v>
@@ -13997,7 +14000,7 @@
         <v>20</v>
       </c>
       <c r="I171" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J171" s="47" t="s">
         <v>33</v>
@@ -14036,7 +14039,7 @@
         <v>20</v>
       </c>
       <c r="I172" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J172" s="47" t="s">
         <v>33</v>
@@ -14075,7 +14078,7 @@
         <v>20</v>
       </c>
       <c r="I173" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J173" s="47" t="s">
         <v>33</v>
@@ -14114,7 +14117,7 @@
         <v>20</v>
       </c>
       <c r="I174" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J174" s="47" t="s">
         <v>33</v>
@@ -14153,7 +14156,7 @@
         <v>20</v>
       </c>
       <c r="I175" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J175" s="47" t="s">
         <v>33</v>
@@ -14223,7 +14226,7 @@
         <v>20</v>
       </c>
       <c r="I177" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J177" s="47" t="s">
         <v>33</v>
@@ -14262,7 +14265,7 @@
         <v>20</v>
       </c>
       <c r="I178" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J178" s="47" t="s">
         <v>33</v>
@@ -14301,7 +14304,7 @@
         <v>20</v>
       </c>
       <c r="I179" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J179" s="47" t="s">
         <v>33</v>
@@ -14340,7 +14343,7 @@
         <v>20</v>
       </c>
       <c r="I180" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J180" s="47" t="s">
         <v>33</v>
@@ -14379,7 +14382,7 @@
         <v>20</v>
       </c>
       <c r="I181" s="38" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
       <c r="J181" s="47" t="s">
         <v>33</v>
